--- a/Data/ROY Data/roy_96_97.xlsx
+++ b/Data/ROY Data/roy_96_97.xlsx
@@ -109,7 +109,7 @@
     <t>NJN</t>
   </si>
   <si>
-    <t>1995-96</t>
+    <t>1996-97</t>
   </si>
 </sst>
 </file>
